--- a/documents/stuffs/soverflow.xlsx
+++ b/documents/stuffs/soverflow.xlsx
@@ -11,19 +11,120 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">c#           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">java         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">php          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">javascript   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jquery       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">android      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c++          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">asp.net      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">.net         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">python       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysql        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">html         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">objective-c  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sql          </t>
+  </si>
+  <si>
+    <t>ruby-on-rails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">css          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ios          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wpf          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruby         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sql-server   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xml          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajax         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">regex        </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,13 +144,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -342,13 +451,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="3">
+        <v>40986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>279565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>220992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>203706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>188351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>162787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>157103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>125027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>115847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>115061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>110480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>98423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <v>87042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>84742</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <v>76364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2">
+        <v>73591</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2">
+        <v>67330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2">
+        <v>65925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2">
+        <v>54191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2">
+        <v>51918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2">
+        <v>42144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2">
+        <v>41893</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2">
+        <v>41643</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2">
+        <v>37733</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2">
+        <v>34328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2">
+        <v>33104</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
